--- a/public/xls/Devices.xlsx
+++ b/public/xls/Devices.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -57,14 +57,40 @@
   </si>
   <si>
     <t>Protocol</t>
+  </si>
+  <si>
+    <t>293AE5</t>
+  </si>
+  <si>
+    <t>Sig Fox</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>Bonn 68</t>
+  </si>
+  <si>
+    <t>HTTP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -107,6 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +468,38 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>12344</v>
+      </c>
+      <c r="J2">
+        <v>234234234</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
